--- a/TestWarehouse_RuleValidation_Inventory.xlsx
+++ b/TestWarehouse_RuleValidation_Inventory.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PLT-69X2T9</t>
+          <t>PLT-P485UU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,12 +493,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RCP-354846</t>
+          <t>RCP-799234</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -523,14 +523,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PLT-3NSC6A</t>
+          <t>PLT-7Q3C20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RCP-554384</t>
+          <t>RCP-646430</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -570,14 +570,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PLT-DG51EV</t>
+          <t>PLT-O2YLGG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RCP-845212</t>
+          <t>RCP-591071</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -617,14 +617,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PLT-8HPSME</t>
+          <t>PLT-23707J</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -634,12 +634,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RCP-722141</t>
+          <t>RCP-185132</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PLT-2B5O6D</t>
+          <t>PLT-CERYG5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RCP-497108</t>
+          <t>RCP-141617</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -711,14 +711,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PLT-GWJRZ4</t>
+          <t>PLT-MJ5QNZ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -728,12 +728,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RCP-506059</t>
+          <t>RCP-266727</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -758,14 +758,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PLT-NAEC9A</t>
+          <t>PLT-X8YDKD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RCP-189396</t>
+          <t>RCP-636465</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -805,14 +805,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PLT-E7367V</t>
+          <t>PLT-Y83KTQ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RCP-851649</t>
+          <t>RCP-317766</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -852,14 +852,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLT-ZJGGG7</t>
+          <t>PLT-U6CN4N</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RCP-588112</t>
+          <t>RCP-623401</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -899,14 +899,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLT-O6257K</t>
+          <t>PLT-LOW9D0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RCP-996108</t>
+          <t>RCP-404158</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -946,14 +946,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PLT-60DNKX</t>
+          <t>PLT-CNQY5X</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -963,12 +963,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RCP-268240</t>
+          <t>RCP-251664</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -993,14 +993,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PLT-68ET5W</t>
+          <t>PLT-NMJLFK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RCP-150734</t>
+          <t>RCP-342078</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1040,14 +1040,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLT-7TBIKX</t>
+          <t>PLT-AMCN77</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RCP-915748</t>
+          <t>RCP-985040</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1087,14 +1087,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PLT-HW8LJ9</t>
+          <t>PLT-SB3T2J</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1104,12 +1104,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RCP-227897</t>
+          <t>RCP-504420</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PLT-4ZEFAC</t>
+          <t>PLT-JT9L4A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RCP-423733</t>
+          <t>RCP-710112</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1181,14 +1181,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PLT-7ZG4JX</t>
+          <t>PLT-FNBASK</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RCP-787492</t>
+          <t>RCP-681902</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1228,14 +1228,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PLT-IVDB6H</t>
+          <t>PLT-FUW7FI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RCP-979541</t>
+          <t>RCP-446753</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1275,14 +1275,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PLT-61L0Q6</t>
+          <t>PLT-UOTG8I</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RCP-491218</t>
+          <t>RCP-985197</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1322,14 +1322,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PLT-9OXHZE</t>
+          <t>PLT-80R2UB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RCP-402955</t>
+          <t>RCP-695040</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1369,14 +1369,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PLT-C39V42</t>
+          <t>PLT-RV2NXA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RCP-998938</t>
+          <t>RCP-531286</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PLT-JMFI1F</t>
+          <t>PLT-W13WMS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RCP-777211</t>
+          <t>RCP-162657</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1463,14 +1463,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PLT-PRQYNJ</t>
+          <t>PLT-CLVSC9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RCP-324125</t>
+          <t>RCP-758007</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1510,14 +1510,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PLT-WT9CXN</t>
+          <t>PLT-PHC8F3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RCP-258005</t>
+          <t>RCP-155665</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1557,14 +1557,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PLT-6XDZYY</t>
+          <t>PLT-M62T64</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RCP-283558</t>
+          <t>RCP-422107</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PLT-5SCVQV</t>
+          <t>PLT-30S7MG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RCP-111017</t>
+          <t>RCP-399178</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1651,14 +1651,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PLT-Y79F61</t>
+          <t>PLT-ELHORE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RCP-501686</t>
+          <t>RCP-258198</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1698,14 +1698,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PLT-A3K4I6</t>
+          <t>PLT-CRGHW3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RCP-451182</t>
+          <t>RCP-546542</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1745,14 +1745,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PLT-KI6XHR</t>
+          <t>PLT-NP7OB3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RCP-909554</t>
+          <t>RCP-246924</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1792,14 +1792,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PLT-3XBITK</t>
+          <t>PLT-INCZ8U</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RCP-829204</t>
+          <t>RCP-137170</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1839,14 +1839,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLT-ZIZ8K6</t>
+          <t>PLT-SKOYZZ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RCP-782149</t>
+          <t>RCP-359757</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1886,14 +1886,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PLT-25ZXYJ</t>
+          <t>PLT-1EFH4L</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RCP-380915</t>
+          <t>RCP-487186</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1933,14 +1933,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PLT-BL3AWK</t>
+          <t>PLT-UW5SDO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RCP-190562</t>
+          <t>RCP-718256</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1980,14 +1980,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PLT-9ESWVW</t>
+          <t>PLT-QWRVFR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1997,12 +1997,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RCP-463067</t>
+          <t>RCP-148394</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2027,14 +2027,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PLT-KIQH8L</t>
+          <t>PLT-AE4C2C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2044,12 +2044,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RCP-947925</t>
+          <t>RCP-979568</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2074,14 +2074,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PLT-247BRX</t>
+          <t>PLT-S6T1KP</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RCP-126140</t>
+          <t>RCP-183262</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PLT-SETNJI</t>
+          <t>PLT-TA6ZZX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RCP-861720</t>
+          <t>RCP-503735</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PLT-IPWIDY</t>
+          <t>PLT-36Y3TB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RCP-790833</t>
+          <t>RCP-896469</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2215,14 +2215,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PLT-MZ1LQB</t>
+          <t>PLT-U10OKO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RCP-307021</t>
+          <t>RCP-557373</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2262,14 +2262,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLT-MDY0PU</t>
+          <t>PLT-8UOBNR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2309,14 +2309,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PLT-8A8PMY</t>
+          <t>PLT-9B9MM6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2356,14 +2356,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PLT-BW7LF1</t>
+          <t>PLT-97YIAO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2403,14 +2403,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PLT-Z5F37X</t>
+          <t>PLT-23411P</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2450,14 +2450,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PLT-6AOIIG</t>
+          <t>PLT-HL3ZRG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2497,14 +2497,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PLT-T8STCQ</t>
+          <t>PLT-OUXRQL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RCP-123261</t>
+          <t>RCP-324231</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Automotive - Parts</t>
+          <t>Electronics - Components</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2544,14 +2544,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PLT-EKDY0O</t>
+          <t>PLT-2QUBP1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2561,17 +2561,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RCP-399615</t>
+          <t>RCP-161588</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Clothing - Apparel</t>
+          <t>Automotive - Parts</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2591,14 +2591,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PLT-CXVANX</t>
+          <t>PLT-2J5EPO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2608,17 +2608,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RCP-531506</t>
+          <t>RCP-290149</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Electronics - Components</t>
+          <t>Toys - Educational</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2638,14 +2638,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PLT-2BG45Z</t>
+          <t>PLT-JPE61O</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2655,12 +2655,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RCP-614345</t>
+          <t>RCP-535304</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2685,14 +2685,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PLT-MDZ6QN</t>
+          <t>PLT-78FX4I</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2702,17 +2702,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RCP-796683</t>
+          <t>RCP-956047</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Home &amp; Garden - Tools</t>
+          <t>Clothing - Apparel</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2732,14 +2732,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PLT-ZRKWRK</t>
+          <t>PLT-0DRMT4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2749,12 +2749,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RCP-541100</t>
+          <t>RCP-270410</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PLT-JL71PH</t>
+          <t>PLT-R2PYTA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RCP-673596</t>
+          <t>RCP-638139</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Books - Literature</t>
+          <t>Home &amp; Garden - Tools</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2826,14 +2826,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PLT-H718KV</t>
+          <t>PLT-RLWKD6</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RCP-319202</t>
+          <t>RCP-757503</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PLT-WOSGUM</t>
+          <t>PLT-GH82E0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2890,17 +2890,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RCP-668773</t>
+          <t>RCP-335300</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Toys - Educational</t>
+          <t>Automotive - Parts</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2920,14 +2920,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PLT-GSDSOW</t>
+          <t>PLT-19XKN1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2937,17 +2937,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RCP-570860</t>
+          <t>RCP-256626</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Home &amp; Garden - Tools</t>
+          <t>Sports - Equipment</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2967,14 +2967,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PLT-6WGJHM</t>
+          <t>PLT-MVZXDF</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2984,17 +2984,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RCP-108766</t>
+          <t>RCP-835077</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Books - Literature</t>
+          <t>Health - Supplements</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3014,14 +3014,14 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PLT-66Y2ON</t>
+          <t>PLT-7VONBZ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3031,17 +3031,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RCP-863322</t>
+          <t>RCP-123368</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Electronics - Components</t>
+          <t>Health - Supplements</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3061,14 +3061,14 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PLT-M7IKNE</t>
+          <t>PLT-Q8WBEX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3078,17 +3078,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RCP-977628</t>
+          <t>RCP-276543</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Home &amp; Garden - Tools</t>
+          <t>Automotive - Parts</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3108,14 +3108,14 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PLT-1ITS3Q</t>
+          <t>PLT-WXW7I9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3125,17 +3125,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RCP-689667</t>
+          <t>RCP-619669</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Books - Literature</t>
+          <t>Health - Supplements</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3155,14 +3155,14 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PLT-533FOE</t>
+          <t>PLT-ZS47XF</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3172,17 +3172,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RCP-325829</t>
+          <t>RCP-787501</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Toys - Educational</t>
+          <t>Sports - Equipment</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3202,14 +3202,14 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PLT-M7YLND</t>
+          <t>PLT-YJZHHP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3219,17 +3219,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RCP-843461</t>
+          <t>RCP-338233</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Health - Supplements</t>
+          <t>Home &amp; Garden - Tools</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PLT-PIIVDZ</t>
+          <t>PLT-98HFTF</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3266,17 +3266,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RCP-517423</t>
+          <t>RCP-128854</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Health - Supplements</t>
+          <t>Sports - Equipment</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3296,14 +3296,14 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PLT-81CV72</t>
+          <t>PLT-4R832R</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RCP-543713</t>
+          <t>RCP-196199</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3343,14 +3343,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PLT-AGB3WB</t>
+          <t>PLT-KA6GGV</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3360,17 +3360,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RCP-468287</t>
+          <t>RCP-708734</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sports - Equipment</t>
+          <t>Clothing - Apparel</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3390,14 +3390,14 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PLT-3K64W0</t>
+          <t>PLT-50ZDP2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3407,17 +3407,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RCP-555547</t>
+          <t>RCP-533452</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Toys - Educational</t>
+          <t>Clothing - Apparel</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3437,14 +3437,14 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PLT-8UWDLT</t>
+          <t>PLT-4UTBC9</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RCP-213228</t>
+          <t>RCP-304648</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3484,14 +3484,14 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PLT-UH5F1P</t>
+          <t>PLT-GWZY2H</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RCP-764437</t>
+          <t>RCP-950060</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3531,14 +3531,14 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PLT-31A128</t>
+          <t>PLT-JNBSM0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RCP-414340</t>
+          <t>RCP-597918</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2025-08-14 20:43:14</t>
+          <t>2025-08-18 10:23:38</t>
         </is>
       </c>
     </row>
